--- a/Test_2025-12-25_11-47.xlsx
+++ b/Test_2025-12-25_11-47.xlsx
@@ -44,7 +44,7 @@
     <t>1 2 3 (ONE TWO THREE) 20 F.C.TABS.</t>
   </si>
   <si>
-    <t>0:1</t>
+    <t>10:0</t>
   </si>
   <si>
     <t>1</t>
